--- a/Data/Fall_Armyworm_Data_season_2.xlsx
+++ b/Data/Fall_Armyworm_Data_season_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Esmael/Desktop/Data Science Library/Data for play/Fall-Armyworm-control/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F767F3-2B5C-AA45-981D-4E0285138B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2848A4A-F16A-E141-BCFC-81A26F40349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23220" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23220" windowHeight="16140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="faw_season_2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="other insect_season2" sheetId="2" r:id="rId3"/>
     <sheet name="weekly_other_insect_season2" sheetId="4" r:id="rId4"/>
     <sheet name="season_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Test" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="34">
   <si>
     <t>Female</t>
   </si>
@@ -128,6 +129,15 @@
   </si>
   <si>
     <t>Day 35</t>
+  </si>
+  <si>
+    <t>FARM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -821,7 +831,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A31"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,7 +1976,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E31"/>
+      <selection sqref="A1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3747,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F72365-2F7D-FB44-93A5-07E46DC93ACF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4723,4 +4733,639 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566B3911-B10D-9B47-8BC2-070996D2AA46}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>